--- a/final_stuff/FinalProject_Primary_Review1.xlsx
+++ b/final_stuff/FinalProject_Primary_Review1.xlsx
@@ -442,8 +442,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/final_stuff/FinalProject_Primary_Review1.xlsx
+++ b/final_stuff/FinalProject_Primary_Review1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t xml:space="preserve">Date:</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Today's date</t>
   </si>
   <si>
+    <t xml:space="preserve">**Submitting** 2021-12-21.</t>
+  </si>
+  <si>
     <t xml:space="preserve">By:</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hierarchical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">K-means</t>
@@ -311,7 +317,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -443,7 +449,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -463,118 +469,139 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="n">
-        <v>44538</v>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
       <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,16 +610,22 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13"/>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,22 +633,31 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13"/>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,27 +665,36 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13"/>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,16 +702,22 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13"/>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,7 +725,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -679,27 +736,27 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
